--- a/tut05/output/0501CS24.xlsx
+++ b/tut05/output/0501CS24.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.469387755102041</v>
+        <v>7.47</v>
       </c>
       <c r="C6" t="n">
-        <v>6.704545454545454</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.558139534883721</v>
+        <v>6.56</v>
       </c>
       <c r="E6" t="n">
-        <v>6.851063829787234</v>
+        <v>6.85</v>
       </c>
       <c r="F6" t="n">
-        <v>6.952380952380953</v>
+        <v>6.95</v>
       </c>
       <c r="G6" t="n">
         <v>7.7</v>
       </c>
       <c r="H6" t="n">
-        <v>7.682926829268292</v>
+        <v>7.68</v>
       </c>
       <c r="I6" t="n">
         <v>7.75</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.469387755102041</v>
+        <v>7.47</v>
       </c>
       <c r="C8" t="n">
-        <v>7.10752688172043</v>
+        <v>7.11</v>
       </c>
       <c r="D8" t="n">
-        <v>6.933823529411764</v>
+        <v>6.93</v>
       </c>
       <c r="E8" t="n">
-        <v>6.912568306010929</v>
+        <v>6.91</v>
       </c>
       <c r="F8" t="n">
         <v>6.92</v>
       </c>
       <c r="G8" t="n">
-        <v>7.037735849056604</v>
+        <v>7.04</v>
       </c>
       <c r="H8" t="n">
-        <v>7.124183006535947</v>
+        <v>7.12</v>
       </c>
       <c r="I8" t="n">
-        <v>7.196531791907514</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
